--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnas-Gcgr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H2">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I2">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J2">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3424073333333333</v>
+        <v>0.09173566666666666</v>
       </c>
       <c r="N2">
-        <v>1.027222</v>
+        <v>0.275207</v>
       </c>
       <c r="O2">
-        <v>0.2005686561953534</v>
+        <v>0.05009584773870874</v>
       </c>
       <c r="P2">
-        <v>0.2005686561953534</v>
+        <v>0.05009584773870875</v>
       </c>
       <c r="Q2">
-        <v>53.52555228564599</v>
+        <v>15.55792356769078</v>
       </c>
       <c r="R2">
-        <v>481.7299705708139</v>
+        <v>140.021312109217</v>
       </c>
       <c r="S2">
-        <v>0.04097338831959552</v>
+        <v>0.01039118013120034</v>
       </c>
       <c r="T2">
-        <v>0.04097338831959553</v>
+        <v>0.01039118013120034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H3">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I3">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J3">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.667961</v>
       </c>
       <c r="O3">
-        <v>0.7161820996308148</v>
+        <v>0.6676778416519996</v>
       </c>
       <c r="P3">
-        <v>0.7161820996308148</v>
+        <v>0.6676778416519997</v>
       </c>
       <c r="Q3">
-        <v>191.126784947373</v>
+        <v>207.3561242529101</v>
       </c>
       <c r="R3">
-        <v>1720.141064526357</v>
+        <v>1866.205118276191</v>
       </c>
       <c r="S3">
-        <v>0.1463060471778563</v>
+        <v>0.1384937282308144</v>
       </c>
       <c r="T3">
-        <v>0.1463060471778564</v>
+        <v>0.1384937282308144</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H4">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I4">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J4">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04147033333333333</v>
+        <v>0.1049366666666667</v>
       </c>
       <c r="N4">
-        <v>0.124411</v>
+        <v>0.31481</v>
       </c>
       <c r="O4">
-        <v>0.02429167900017729</v>
+        <v>0.05730476996087635</v>
       </c>
       <c r="P4">
-        <v>0.02429167900017729</v>
+        <v>0.05730476996087636</v>
       </c>
       <c r="Q4">
-        <v>6.482695547223</v>
+        <v>17.79674905923444</v>
       </c>
       <c r="R4">
-        <v>58.344259925007</v>
+        <v>160.17074153311</v>
       </c>
       <c r="S4">
-        <v>0.004962452336719034</v>
+        <v>0.01188649786198454</v>
       </c>
       <c r="T4">
-        <v>0.004962452336719035</v>
+        <v>0.01188649786198454</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H5">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I5">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J5">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.065973</v>
+        <v>0.1152103333333333</v>
       </c>
       <c r="N5">
-        <v>0.197919</v>
+        <v>0.345631</v>
       </c>
       <c r="O5">
-        <v>0.03864437080351488</v>
+        <v>0.06291510735474622</v>
       </c>
       <c r="P5">
-        <v>0.03864437080351488</v>
+        <v>0.06291510735474623</v>
       </c>
       <c r="Q5">
-        <v>10.312983739467</v>
+        <v>19.53911303355122</v>
       </c>
       <c r="R5">
-        <v>92.816853655203</v>
+        <v>175.852017301961</v>
       </c>
       <c r="S5">
-        <v>0.007894507752779854</v>
+        <v>0.01305022757388767</v>
       </c>
       <c r="T5">
-        <v>0.007894507752779856</v>
+        <v>0.01305022757388767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>156.321279</v>
+        <v>169.5951436666667</v>
       </c>
       <c r="H6">
-        <v>468.963837</v>
+        <v>508.785431</v>
       </c>
       <c r="I6">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="J6">
-        <v>0.2042860988193865</v>
+        <v>0.2074259764082431</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03467833333333333</v>
+        <v>0.2966666666666667</v>
       </c>
       <c r="N6">
-        <v>0.104035</v>
+        <v>0.89</v>
       </c>
       <c r="O6">
-        <v>0.02031319437013965</v>
+        <v>0.1620064332936691</v>
       </c>
       <c r="P6">
-        <v>0.02031319437013965</v>
+        <v>0.1620064332936691</v>
       </c>
       <c r="Q6">
-        <v>5.420961420255</v>
+        <v>50.31322595444445</v>
       </c>
       <c r="R6">
-        <v>48.788652782295</v>
+        <v>452.81903359</v>
       </c>
       <c r="S6">
-        <v>0.004149703232435754</v>
+        <v>0.03360434261035621</v>
       </c>
       <c r="T6">
-        <v>0.004149703232435755</v>
+        <v>0.03360434261035621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I7">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J7">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3424073333333333</v>
+        <v>0.09173566666666666</v>
       </c>
       <c r="N7">
-        <v>1.027222</v>
+        <v>0.275207</v>
       </c>
       <c r="O7">
-        <v>0.2005686561953534</v>
+        <v>0.05009584773870874</v>
       </c>
       <c r="P7">
-        <v>0.2005686561953534</v>
+        <v>0.05009584773870875</v>
       </c>
       <c r="Q7">
-        <v>113.5639006914938</v>
+        <v>30.42534176410155</v>
       </c>
       <c r="R7">
-        <v>1022.075106223444</v>
+        <v>273.8280758769139</v>
       </c>
       <c r="S7">
-        <v>0.08693227072723513</v>
+        <v>0.02032116981733173</v>
       </c>
       <c r="T7">
-        <v>0.08693227072723513</v>
+        <v>0.02032116981733173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I8">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J8">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.667961</v>
       </c>
       <c r="O8">
-        <v>0.7161820996308148</v>
+        <v>0.6676778416519996</v>
       </c>
       <c r="P8">
-        <v>0.7161820996308148</v>
+        <v>0.6676778416519997</v>
       </c>
       <c r="Q8">
         <v>405.5091876383802</v>
@@ -948,10 +948,10 @@
         <v>3649.582688745422</v>
       </c>
       <c r="S8">
-        <v>0.3104140864087219</v>
+        <v>0.2708407066838777</v>
       </c>
       <c r="T8">
-        <v>0.3104140864087219</v>
+        <v>0.2708407066838777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I9">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J9">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.04147033333333333</v>
+        <v>0.1049366666666667</v>
       </c>
       <c r="N9">
-        <v>0.124411</v>
+        <v>0.31481</v>
       </c>
       <c r="O9">
-        <v>0.02429167900017729</v>
+        <v>0.05730476996087635</v>
       </c>
       <c r="P9">
-        <v>0.02429167900017729</v>
+        <v>0.05730476996087636</v>
       </c>
       <c r="Q9">
-        <v>13.75418210370244</v>
+        <v>34.80362723606888</v>
       </c>
       <c r="R9">
-        <v>123.787638933322</v>
+        <v>313.2326451246199</v>
       </c>
       <c r="S9">
-        <v>0.01052871797279074</v>
+        <v>0.0232454387795158</v>
       </c>
       <c r="T9">
-        <v>0.01052871797279074</v>
+        <v>0.0232454387795158</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I10">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J10">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.065973</v>
+        <v>0.1152103333333333</v>
       </c>
       <c r="N10">
-        <v>0.197919</v>
+        <v>0.345631</v>
       </c>
       <c r="O10">
-        <v>0.03864437080351488</v>
+        <v>0.06291510735474622</v>
       </c>
       <c r="P10">
-        <v>0.03864437080351488</v>
+        <v>0.06291510735474623</v>
       </c>
       <c r="Q10">
-        <v>21.880814138482</v>
+        <v>38.21102406286245</v>
       </c>
       <c r="R10">
-        <v>196.927327246338</v>
+        <v>343.899216565762</v>
       </c>
       <c r="S10">
-        <v>0.01674959073117948</v>
+        <v>0.02552124853341007</v>
       </c>
       <c r="T10">
-        <v>0.01674959073117948</v>
+        <v>0.02552124853341007</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>994.9895019999999</v>
       </c>
       <c r="I11">
-        <v>0.4334289932249598</v>
+        <v>0.4056457917095931</v>
       </c>
       <c r="J11">
-        <v>0.4334289932249598</v>
+        <v>0.405645791709593</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03467833333333333</v>
+        <v>0.2966666666666667</v>
       </c>
       <c r="N11">
-        <v>0.104035</v>
+        <v>0.89</v>
       </c>
       <c r="O11">
-        <v>0.02031319437013965</v>
+        <v>0.1620064332936691</v>
       </c>
       <c r="P11">
-        <v>0.02031319437013965</v>
+        <v>0.1620064332936691</v>
       </c>
       <c r="Q11">
-        <v>11.50152587117444</v>
+        <v>98.3934063088889</v>
       </c>
       <c r="R11">
-        <v>103.51373284057</v>
+        <v>885.5406567799999</v>
       </c>
       <c r="S11">
-        <v>0.00880432738503255</v>
+        <v>0.06571722789545777</v>
       </c>
       <c r="T11">
-        <v>0.00880432738503255</v>
+        <v>0.06571722789545777</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H12">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I12">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J12">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.3424073333333333</v>
+        <v>0.09173566666666666</v>
       </c>
       <c r="N12">
-        <v>1.027222</v>
+        <v>0.275207</v>
       </c>
       <c r="O12">
-        <v>0.2005686561953534</v>
+        <v>0.05009584773870874</v>
       </c>
       <c r="P12">
-        <v>0.2005686561953534</v>
+        <v>0.05009584773870875</v>
       </c>
       <c r="Q12">
-        <v>32.04965590999044</v>
+        <v>9.00610757990011</v>
       </c>
       <c r="R12">
-        <v>288.4469031899139</v>
+        <v>81.05496821910099</v>
       </c>
       <c r="S12">
-        <v>0.02453375894379357</v>
+        <v>0.006015204132899673</v>
       </c>
       <c r="T12">
-        <v>0.02453375894379357</v>
+        <v>0.006015204132899674</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H13">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I13">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J13">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.667961</v>
       </c>
       <c r="O13">
-        <v>0.7161820996308148</v>
+        <v>0.6676778416519996</v>
       </c>
       <c r="P13">
-        <v>0.7161820996308148</v>
+        <v>0.6676778416519997</v>
       </c>
       <c r="Q13">
-        <v>114.4415598003786</v>
+        <v>120.0334706779915</v>
       </c>
       <c r="R13">
-        <v>1029.974038203407</v>
+        <v>1080.301236101923</v>
       </c>
       <c r="S13">
-        <v>0.08760411185628426</v>
+        <v>0.08017068667045105</v>
       </c>
       <c r="T13">
-        <v>0.08760411185628428</v>
+        <v>0.08017068667045105</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H14">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I14">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J14">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.04147033333333333</v>
+        <v>0.1049366666666667</v>
       </c>
       <c r="N14">
-        <v>0.124411</v>
+        <v>0.31481</v>
       </c>
       <c r="O14">
-        <v>0.02429167900017729</v>
+        <v>0.05730476996087635</v>
       </c>
       <c r="P14">
-        <v>0.02429167900017729</v>
+        <v>0.05730476996087636</v>
       </c>
       <c r="Q14">
-        <v>3.881663108284111</v>
+        <v>10.30210978364778</v>
       </c>
       <c r="R14">
-        <v>34.934967974557</v>
+        <v>92.71898805282999</v>
       </c>
       <c r="S14">
-        <v>0.002971382509288452</v>
+        <v>0.006880807585120095</v>
       </c>
       <c r="T14">
-        <v>0.002971382509288452</v>
+        <v>0.006880807585120096</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H15">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I15">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J15">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.065973</v>
+        <v>0.1152103333333333</v>
       </c>
       <c r="N15">
-        <v>0.197919</v>
+        <v>0.345631</v>
       </c>
       <c r="O15">
-        <v>0.03864437080351488</v>
+        <v>0.06291510735474622</v>
       </c>
       <c r="P15">
-        <v>0.03864437080351488</v>
+        <v>0.06291510735474623</v>
       </c>
       <c r="Q15">
-        <v>6.175136288017</v>
+        <v>11.31072236152589</v>
       </c>
       <c r="R15">
-        <v>55.57622659215301</v>
+        <v>101.796501253733</v>
       </c>
       <c r="S15">
-        <v>0.004727018148361972</v>
+        <v>0.007554462712279292</v>
       </c>
       <c r="T15">
-        <v>0.004727018148361972</v>
+        <v>0.007554462712279292</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>93.60096233333333</v>
+        <v>98.17454766666667</v>
       </c>
       <c r="H16">
-        <v>280.802887</v>
+        <v>294.523643</v>
       </c>
       <c r="I16">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="J16">
-        <v>0.1223210017416567</v>
+        <v>0.1200739064098473</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.03467833333333333</v>
+        <v>0.2966666666666667</v>
       </c>
       <c r="N16">
-        <v>0.104035</v>
+        <v>0.89</v>
       </c>
       <c r="O16">
-        <v>0.02031319437013965</v>
+        <v>0.1620064332936691</v>
       </c>
       <c r="P16">
-        <v>0.02031319437013965</v>
+        <v>0.1620064332936691</v>
       </c>
       <c r="Q16">
-        <v>3.245925372116111</v>
+        <v>29.12511580777778</v>
       </c>
       <c r="R16">
-        <v>29.213328349045</v>
+        <v>262.12604227</v>
       </c>
       <c r="S16">
-        <v>0.002484730283928464</v>
+        <v>0.01945274530909719</v>
       </c>
       <c r="T16">
-        <v>0.002484730283928464</v>
+        <v>0.01945274530909719</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H17">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I17">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J17">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,28 +1488,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.3424073333333333</v>
+        <v>0.09173566666666666</v>
       </c>
       <c r="N17">
-        <v>1.027222</v>
+        <v>0.275207</v>
       </c>
       <c r="O17">
-        <v>0.2005686561953534</v>
+        <v>0.05009584773870874</v>
       </c>
       <c r="P17">
-        <v>0.2005686561953534</v>
+        <v>0.05009584773870875</v>
       </c>
       <c r="Q17">
-        <v>31.26599600742333</v>
+        <v>9.718036287202333</v>
       </c>
       <c r="R17">
-        <v>281.3939640668099</v>
+        <v>87.462326584821</v>
       </c>
       <c r="S17">
-        <v>0.02393387346616181</v>
+        <v>0.006490703283281991</v>
       </c>
       <c r="T17">
-        <v>0.02393387346616181</v>
+        <v>0.00649070328328199</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H18">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I18">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J18">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.667961</v>
       </c>
       <c r="O18">
-        <v>0.7161820996308148</v>
+        <v>0.6676778416519996</v>
       </c>
       <c r="P18">
-        <v>0.7161820996308148</v>
+        <v>0.6676778416519997</v>
       </c>
       <c r="Q18">
-        <v>111.6433000669617</v>
+        <v>129.5220619317203</v>
       </c>
       <c r="R18">
-        <v>1004.789700602655</v>
+        <v>1165.698557385483</v>
       </c>
       <c r="S18">
-        <v>0.08546206608972194</v>
+        <v>0.08650814298201098</v>
       </c>
       <c r="T18">
-        <v>0.08546206608972196</v>
+        <v>0.08650814298201098</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H19">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I19">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J19">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.04147033333333333</v>
+        <v>0.1049366666666667</v>
       </c>
       <c r="N19">
-        <v>0.124411</v>
+        <v>0.31481</v>
       </c>
       <c r="O19">
-        <v>0.02429167900017729</v>
+        <v>0.05730476996087635</v>
       </c>
       <c r="P19">
-        <v>0.02429167900017729</v>
+        <v>0.05730476996087636</v>
       </c>
       <c r="Q19">
-        <v>3.786750896378333</v>
+        <v>11.11648687560333</v>
       </c>
       <c r="R19">
-        <v>34.08075806740499</v>
+        <v>100.04838188043</v>
       </c>
       <c r="S19">
-        <v>0.002898727959290842</v>
+        <v>0.007424732294636413</v>
       </c>
       <c r="T19">
-        <v>0.002898727959290842</v>
+        <v>0.007424732294636413</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H20">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I20">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J20">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.065973</v>
+        <v>0.1152103333333333</v>
       </c>
       <c r="N20">
-        <v>0.197919</v>
+        <v>0.345631</v>
       </c>
       <c r="O20">
-        <v>0.03864437080351488</v>
+        <v>0.06291510735474622</v>
       </c>
       <c r="P20">
-        <v>0.03864437080351488</v>
+        <v>0.06291510735474623</v>
       </c>
       <c r="Q20">
-        <v>6.024145378305</v>
+        <v>12.20482981894367</v>
       </c>
       <c r="R20">
-        <v>54.217308404745</v>
+        <v>109.843468370493</v>
       </c>
       <c r="S20">
-        <v>0.004611435797275837</v>
+        <v>0.008151639553151039</v>
       </c>
       <c r="T20">
-        <v>0.004611435797275838</v>
+        <v>0.008151639553151039</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>91.31228499999999</v>
+        <v>105.935201</v>
       </c>
       <c r="H21">
-        <v>273.936855</v>
+        <v>317.805603</v>
       </c>
       <c r="I21">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="J21">
-        <v>0.1193300783889696</v>
+        <v>0.1295656940897851</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.03467833333333333</v>
+        <v>0.2966666666666667</v>
       </c>
       <c r="N21">
-        <v>0.104035</v>
+        <v>0.89</v>
       </c>
       <c r="O21">
-        <v>0.02031319437013965</v>
+        <v>0.1620064332936691</v>
       </c>
       <c r="P21">
-        <v>0.02031319437013965</v>
+        <v>0.1620064332936691</v>
       </c>
       <c r="Q21">
-        <v>3.166557856658333</v>
+        <v>31.42744296333334</v>
       </c>
       <c r="R21">
-        <v>28.499020709925</v>
+        <v>282.84698667</v>
       </c>
       <c r="S21">
-        <v>0.00242397507651914</v>
+        <v>0.02099047597670471</v>
       </c>
       <c r="T21">
-        <v>0.00242397507651914</v>
+        <v>0.02099047597670471</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H22">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I22">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J22">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1798,28 +1798,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.3424073333333333</v>
+        <v>0.09173566666666666</v>
       </c>
       <c r="N22">
-        <v>1.027222</v>
+        <v>0.275207</v>
       </c>
       <c r="O22">
-        <v>0.2005686561953534</v>
+        <v>0.05009584773870874</v>
       </c>
       <c r="P22">
-        <v>0.2005686561953534</v>
+        <v>0.05009584773870875</v>
       </c>
       <c r="Q22">
-        <v>31.60759491704265</v>
+        <v>10.297292898159</v>
       </c>
       <c r="R22">
-        <v>284.4683542533839</v>
+        <v>92.67563608343099</v>
       </c>
       <c r="S22">
-        <v>0.02419536473856736</v>
+        <v>0.006877590373995007</v>
       </c>
       <c r="T22">
-        <v>0.02419536473856736</v>
+        <v>0.006877590373995006</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H23">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I23">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J23">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.667961</v>
       </c>
       <c r="O23">
-        <v>0.7161820996308148</v>
+        <v>0.6676778416519996</v>
       </c>
       <c r="P23">
-        <v>0.7161820996308148</v>
+        <v>0.6676778416519997</v>
       </c>
       <c r="Q23">
-        <v>112.8630670483213</v>
+        <v>137.242398471057</v>
       </c>
       <c r="R23">
-        <v>1015.767603434892</v>
+        <v>1235.181586239513</v>
       </c>
       <c r="S23">
-        <v>0.08639578809823026</v>
+        <v>0.0916645770848456</v>
       </c>
       <c r="T23">
-        <v>0.08639578809823027</v>
+        <v>0.09166457708484559</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H24">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I24">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J24">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.04147033333333333</v>
+        <v>0.1049366666666667</v>
       </c>
       <c r="N24">
-        <v>0.124411</v>
+        <v>0.31481</v>
       </c>
       <c r="O24">
-        <v>0.02429167900017729</v>
+        <v>0.05730476996087635</v>
       </c>
       <c r="P24">
-        <v>0.02429167900017729</v>
+        <v>0.05730476996087636</v>
       </c>
       <c r="Q24">
-        <v>3.828123318254666</v>
+        <v>11.77910001297</v>
       </c>
       <c r="R24">
-        <v>34.453109864292</v>
+        <v>106.01190011673</v>
       </c>
       <c r="S24">
-        <v>0.002930398222088218</v>
+        <v>0.007867293439619515</v>
       </c>
       <c r="T24">
-        <v>0.002930398222088219</v>
+        <v>0.007867293439619515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H25">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I25">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J25">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.065973</v>
+        <v>0.1152103333333333</v>
       </c>
       <c r="N25">
-        <v>0.197919</v>
+        <v>0.345631</v>
       </c>
       <c r="O25">
-        <v>0.03864437080351488</v>
+        <v>0.06291510735474622</v>
       </c>
       <c r="P25">
-        <v>0.03864437080351488</v>
+        <v>0.06291510735474623</v>
       </c>
       <c r="Q25">
-        <v>6.089962616052</v>
+        <v>12.932315099847</v>
       </c>
       <c r="R25">
-        <v>54.80966354446799</v>
+        <v>116.390835898623</v>
       </c>
       <c r="S25">
-        <v>0.004661818373917726</v>
+        <v>0.008637528982018148</v>
       </c>
       <c r="T25">
-        <v>0.004661818373917726</v>
+        <v>0.008637528982018148</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>92.30992399999998</v>
+        <v>112.249611</v>
       </c>
       <c r="H26">
-        <v>276.929772</v>
+        <v>336.748833</v>
       </c>
       <c r="I26">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825315</v>
       </c>
       <c r="J26">
-        <v>0.1206338278250273</v>
+        <v>0.1372886313825314</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.03467833333333333</v>
+        <v>0.2966666666666667</v>
       </c>
       <c r="N26">
-        <v>0.104035</v>
+        <v>0.89</v>
       </c>
       <c r="O26">
-        <v>0.02031319437013965</v>
+        <v>0.1620064332936691</v>
       </c>
       <c r="P26">
-        <v>0.02031319437013965</v>
+        <v>0.1620064332936691</v>
       </c>
       <c r="Q26">
-        <v>3.201154314446666</v>
+        <v>33.30071793</v>
       </c>
       <c r="R26">
-        <v>28.81038883001999</v>
+        <v>299.70646137</v>
       </c>
       <c r="S26">
-        <v>0.00245045839222374</v>
+        <v>0.02224164150205321</v>
       </c>
       <c r="T26">
-        <v>0.002450458392223741</v>
+        <v>0.02224164150205321</v>
       </c>
     </row>
   </sheetData>
